--- a/Tablet/Visualisation/Action14/Results.xlsx
+++ b/Tablet/Visualisation/Action14/Results.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Instagram\Tablet\Consumo\Reels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALARCOS\Desktop\InstagramEnergyConsumption\Tablet\Visualisation\Action14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD57AEF-F20E-4EF8-B9D1-D1D8FE967389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5523AA1-2179-4AD7-9CFA-2AC2390D5DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabla de pruebas" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabla total" sheetId="2" r:id="rId2"/>
+    <sheet name="Measurements table" sheetId="1" r:id="rId1"/>
+    <sheet name="Total table" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -251,9 +251,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -291,7 +291,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -397,7 +397,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -539,7 +539,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -553,16 +553,16 @@
       <selection activeCell="H168" sqref="H168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -572,7 +572,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -580,7 +580,7 @@
         <v>138765</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -588,7 +588,7 @@
         <v>138.76499999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -608,7 +608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -628,7 +628,7 @@
         <v>1.0295399999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -648,7 +648,7 @@
         <v>3.5249799999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -668,7 +668,7 @@
         <v>2.4954399999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -688,7 +688,7 @@
         <v>1.6790639130434784</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -708,7 +708,7 @@
         <v>1.4585399999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -728,7 +728,7 @@
         <v>1.7540925000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -748,7 +748,7 @@
         <v>0.29555250000000011</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -768,7 +768,7 @@
         <v>0.40888602563094356</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -788,7 +788,7 @@
         <v>0.16718778195626866</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -808,7 +808,7 @@
         <v>1.55006</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -828,7 +828,7 @@
         <v>1.6007162162162163</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -848,7 +848,7 @@
         <v>1.8059949999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -868,7 +868,7 @@
         <v>1.6402737170677315</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -888,7 +888,7 @@
         <v>0.11302000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -908,7 +908,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -918,7 +918,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>1</v>
       </c>
@@ -926,7 +926,7 @@
         <v>137748</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
@@ -934,7 +934,7 @@
         <v>137.74799999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -954,7 +954,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
@@ -974,7 +974,7 @@
         <v>1.0001199999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
@@ -994,7 +994,7 @@
         <v>3.2473299999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>11</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>2.2472099999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>12</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>1.6731339416058395</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>13</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>1.4522425000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>1.8155250000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>0.36328249999999995</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>0.36318837506681612</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>0.13190579578367428</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>18</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>1.551005</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>19</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>1.6197851818181819</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>20</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>1.77251</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>21</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>1.6397461999608172</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>22</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>0.13393499999999992</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>23</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>25</v>
       </c>
@@ -1264,7 +1264,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>1</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>138267</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>2</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>138.267</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>9</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>1.05928</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>10</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>3.2119599999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>11</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>2.1526800000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>12</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>1.6109719272727272</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>13</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>1.4252</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>14</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>1.68126</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>15</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>0.25605999999999995</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>16</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>0.31714051786291775</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>17</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>0.10057810807035965</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>18</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>1.5172399999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>19</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>1.561057556561086</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>20</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>1.7055700000000003</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>21</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>1.584736678530454</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>22</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>0.11112000000000011</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>23</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>26</v>
       </c>
@@ -1610,7 +1610,7 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>1</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>137757</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>2</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>137.75700000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>3</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>9</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>1.01796</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>10</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>3.3722300000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>11</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>2.3542700000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>12</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>1.6105795255474453</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>13</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>1.440215</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>14</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>1.6971449999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>15</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>0.25692999999999988</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>16</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>0.30488792025489714</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>17</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>9.2956643917356516E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>18</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>1.53068</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>19</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>1.5650439545454546</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>20</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>1.673435</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>21</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>1.5873467772686567</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>22</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>0.10692500000000005</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>23</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>27</v>
       </c>
@@ -1956,7 +1956,7 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>1</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>139271</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>2</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>139.27099999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>3</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>9</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>1.0295399999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>10</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>3.1948400000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>11</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>2.1653000000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>12</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>1.6354397111913357</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>13</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>1.4632350000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>14</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>1.7145199999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>15</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>0.25128499999999976</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>16</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>0.29470176315338442</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>17</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>8.6849129205713485E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>18</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>1.5507299999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>19</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>1.5905596860986548</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>20</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>1.7465249999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>21</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>1.6130184872479401</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>22</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>0.10079000000000016</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>23</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>28</v>
       </c>
@@ -2302,7 +2302,7 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>1</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>139273</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>2</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>139.273</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>9</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>1.04756</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>10</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>3.1913</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>11</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>2.1437400000000002</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>12</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>1.6339710830324909</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>13</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>1.4721599999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>14</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>1.712885</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>15</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>0.24072500000000008</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>16</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>0.28576029886391457</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>17</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>8.1658948406793788E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>18</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>1.55135</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>19</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>1.5892618834080716</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>20</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>1.7277400000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>21</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>1.6125582407585073</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>22</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>9.3900000000000095E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>23</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>29</v>
       </c>
@@ -2648,7 +2648,7 @@
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>1</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>137757</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>2</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>137.75700000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>3</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>9</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>1.00356</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>10</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>3.85595</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>11</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>2.8523899999999998</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>12</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>1.6783278832116788</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>13</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>1.4921125</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>14</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>1.7840099999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>15</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>0.29189749999999992</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>16</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>0.33417170427216325</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>17</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>0.11167072793616213</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>18</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>1.581955</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>19</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>1.6301653181818181</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>20</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>1.734955</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>21</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>1.6512835639906238</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>22</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>0.11497999999999997</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>23</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>30</v>
       </c>
@@ -2994,7 +2994,7 @@
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>1</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>138269</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>2</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>138.26900000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>3</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>9</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>0.99165999999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>10</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>3.1571799999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>11</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>2.1655199999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>12</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>1.6574552363636363</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>13</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>1.4255199999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>14</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>1.7870600000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>15</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>0.36154000000000019</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>16</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>0.35139089921526506</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>17</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>0.12347556405131258</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>18</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>1.54572</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>19</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>1.6067006787330318</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>20</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>1.7583150000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>21</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>1.6251562539473905</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>22</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>0.13867000000000007</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>23</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>31</v>
       </c>
@@ -3340,7 +3340,7 @@
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>1</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>137750</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>2</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>137.75</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>3</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>9</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>1.05646</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>10</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>3.2633000000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>11</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>2.2068400000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>12</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>1.701436897810219</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>13</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>1.5043525</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>14</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>1.7938700000000001</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>15</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>0.28951750000000009</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>16</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>0.31921411282492657</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>17</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>0.10189764982660494</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>18</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>1.60598</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>19</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>1.6521321818181818</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>20</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>1.80694</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>21</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>1.6760643714441372</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>22</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>0.12583999999999995</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>23</v>
       </c>
@@ -3686,25 +3686,25 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>0.99165999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>35</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>3.85595</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>2.86429</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>36</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>1.653375568786539</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>1.459286388888889</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>1.7489297222222222</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>0.28964333333333325</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>37</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>3.2263052674404692E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>1.0409045678714116E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>1.5538577777777778</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>1.6526233851030268</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>1.6562044125414732</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>1.6530954833460774</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>2.2015525172300654E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>43</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>228.69068338143384</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>44</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>214.49301062333333</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>45</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>221.86860370083943</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>46</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>234.37293267335767</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>47</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>4.2505063157464003</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G24">
         <f>G17-(G3*B6)</f>
         <v>91.526806423656069</v>

--- a/Tablet/Visualisation/Action14/Results.xlsx
+++ b/Tablet/Visualisation/Action14/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALARCOS\Desktop\InstagramEnergyConsumption\Tablet\Visualisation\Action14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5523AA1-2179-4AD7-9CFA-2AC2390D5DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C650AE0-D210-4405-9DBD-1927FD50D2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -165,19 +165,19 @@
     <t>GeometricMean (w) (Time in s)</t>
   </si>
   <si>
-    <t>Mean - Consumption (w/s)</t>
-  </si>
-  <si>
-    <t>Median - Consumption (w/s)</t>
-  </si>
-  <si>
-    <t>Min Measurement Consumption(w/s) (Time in s)</t>
-  </si>
-  <si>
-    <t>Max Measurement Consumption(w/s) (Time in s)</t>
-  </si>
-  <si>
-    <t>SD Measurement Consumption(w/s) (Time in s)</t>
+    <t>Mean - Consumption (w*s)</t>
+  </si>
+  <si>
+    <t>Median - Consumption (w*s)</t>
+  </si>
+  <si>
+    <t>Min Measurement Consumption(w*s) (Time in s)</t>
+  </si>
+  <si>
+    <t>Max Measurement Consumption(w*s) (Time in s)</t>
+  </si>
+  <si>
+    <t>SD Measurement Consumption(w*s) (Time in s)</t>
   </si>
 </sst>
 </file>
@@ -3686,7 +3686,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
